--- a/Price_SGCU&other_calc_tables_NEW_30.09.2020.xlsx
+++ b/Price_SGCU&other_calc_tables_NEW_30.09.2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\!Expert\Price_SGCU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BA1FB3-7F11-4136-9B38-CEC0E03FA2FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CE699C-72F5-4B14-8219-F45AAB01327E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Счёт ДГЦУ " sheetId="1" r:id="rId1"/>
@@ -1415,45 +1415,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1470,15 +1431,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1587,113 +1539,59 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1891,10 +1789,88 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1985,6 +1961,16 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1998,16 +1984,18 @@
       </font>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
@@ -2015,35 +2003,21 @@
         <charset val="204"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2125,13 +2099,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -2148,12 +2115,45 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
         <bottom style="thin">
-          <color theme="1"/>
+          <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2178,7 +2178,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{162B52BB-C6B3-46E0-AC62-316FABEE7CEE}" name="Расчет_массы_кругБрил" displayName="Расчет_массы_кругБрил" ref="B4:C50" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{162B52BB-C6B3-46E0-AC62-316FABEE7CEE}" name="Расчет_массы_кругБрил" displayName="Расчет_массы_кругБрил" ref="B4:C50" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="21" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="B4:C50" xr:uid="{7CA1CA96-764E-4F9B-80A6-DC23FBCFD66E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E200585F-080F-4726-8158-1858A85BC4EF}" name="Ø, mm" dataDxfId="18"/>
@@ -2189,31 +2189,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Плотность" displayName="Плотность" ref="B4:C51" totalsRowShown="0" headerRowDxfId="1" dataDxfId="12" headerRowBorderDxfId="9" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Плотность" displayName="Плотность" ref="B4:C51" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <autoFilter ref="B4:C51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:C50">
     <sortCondition ref="B4:B50"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Название минерала" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Плотность, г/см3" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Название минерала" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Плотность, г/см3" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95696167-1823-413D-97F4-208DAB751639}" name="Таблица4" displayName="Таблица4" ref="B4:G41" totalsRowShown="0" headerRowDxfId="0" dataDxfId="13" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95696167-1823-413D-97F4-208DAB751639}" name="Таблица4" displayName="Таблица4" ref="B4:G41" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B4:G41" xr:uid="{4EB8A87B-6209-4BCD-B986-74E320AFB41F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A7EF1A84-9933-4D75-8A70-E86DFE78A12D}" name="Название минерала" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BCC90E2E-1153-4C09-96B2-BAE4F97C809E}" name="Коэффициент, ср." dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{30461F13-C8BA-457F-BF8C-1E42056D69C3}" name="Диаметр блил." dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{14A9E5FD-93CC-498E-ADFE-E8D839C2F3F5}" name="Масса брил." dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{A7EF1A84-9933-4D75-8A70-E86DFE78A12D}" name="Название минерала" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BCC90E2E-1153-4C09-96B2-BAE4F97C809E}" name="Коэффициент, ср." dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{30461F13-C8BA-457F-BF8C-1E42056D69C3}" name="Диаметр блил." dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{14A9E5FD-93CC-498E-ADFE-E8D839C2F3F5}" name="Масса брил." dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(D5,Расчет_массы_кругБрил[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{923467A4-EF3D-487D-B51A-814463B6D4B5}" name="Колличество" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{7AE0A6B9-E80C-4BB7-9093-697F20C9D22F}" name="Масса расчёт" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{923467A4-EF3D-487D-B51A-814463B6D4B5}" name="Колличество" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{7AE0A6B9-E80C-4BB7-9093-697F20C9D22F}" name="Масса расчёт" dataDxfId="0">
       <calculatedColumnFormula>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2489,9 +2489,9 @@
   </sheetPr>
   <dimension ref="B2:H54"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,28 +2504,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="61" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="50" t="s">
+      <c r="B3" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="103"/>
       <c r="E3" s="13">
         <v>8</v>
       </c>
@@ -2536,11 +2536,11 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="61"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="13">
         <v>36</v>
       </c>
@@ -2551,13 +2551,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="13">
         <v>5</v>
       </c>
@@ -2568,11 +2568,11 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="13">
         <v>8</v>
       </c>
@@ -2586,10 +2586,10 @@
       <c r="B7" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="104"/>
       <c r="E7" s="13">
         <v>8</v>
       </c>
@@ -2600,13 +2600,13 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="50"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="13">
         <v>48</v>
       </c>
@@ -2617,11 +2617,11 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="50" t="s">
+      <c r="B9" s="106"/>
+      <c r="C9" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="50"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="13">
         <v>86</v>
       </c>
@@ -2632,11 +2632,11 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="106"/>
+      <c r="C10" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="50"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="13">
         <v>175</v>
       </c>
@@ -2647,11 +2647,11 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="50"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="13">
         <v>329</v>
       </c>
@@ -2662,11 +2662,11 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="58"/>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="106"/>
+      <c r="C12" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="50"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="13">
         <v>533</v>
       </c>
@@ -2677,11 +2677,11 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="58"/>
-      <c r="C13" s="50" t="s">
+      <c r="B13" s="106"/>
+      <c r="C13" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="13">
         <v>593</v>
       </c>
@@ -2692,11 +2692,11 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="58"/>
-      <c r="C14" s="50" t="s">
+      <c r="B14" s="106"/>
+      <c r="C14" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="13">
         <v>824</v>
       </c>
@@ -2707,13 +2707,13 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="17">
         <v>275</v>
       </c>
@@ -2724,11 +2724,11 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="52"/>
-      <c r="C16" s="50" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="17">
         <v>429</v>
       </c>
@@ -2739,11 +2739,11 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="52"/>
-      <c r="C17" s="50" t="s">
+      <c r="B17" s="114"/>
+      <c r="C17" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="50"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="17">
         <v>633</v>
       </c>
@@ -2754,11 +2754,11 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52"/>
-      <c r="C18" s="53" t="s">
+      <c r="B18" s="114"/>
+      <c r="C18" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="53"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="17">
         <v>693</v>
       </c>
@@ -2769,11 +2769,11 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="52"/>
-      <c r="C19" s="50" t="s">
+      <c r="B19" s="114"/>
+      <c r="C19" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="50"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="17">
         <v>66</v>
       </c>
@@ -2784,13 +2784,13 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="50"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="17">
         <v>48</v>
       </c>
@@ -2801,11 +2801,11 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="50" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="17">
         <v>86</v>
       </c>
@@ -2816,11 +2816,11 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="17">
         <v>175</v>
       </c>
@@ -2831,11 +2831,11 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
-      <c r="C23" s="50" t="s">
+      <c r="B23" s="114"/>
+      <c r="C23" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="17">
         <v>329</v>
       </c>
@@ -2846,11 +2846,11 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="52"/>
-      <c r="C24" s="50" t="s">
+      <c r="B24" s="114"/>
+      <c r="C24" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="17">
         <v>533</v>
       </c>
@@ -2861,11 +2861,11 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="52"/>
-      <c r="C25" s="50" t="s">
+      <c r="B25" s="114"/>
+      <c r="C25" s="103" t="s">
         <v>148</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="17">
         <v>593</v>
       </c>
@@ -2876,11 +2876,11 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="52"/>
-      <c r="C26" s="50" t="s">
+      <c r="B26" s="114"/>
+      <c r="C26" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="50"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="17">
         <v>824</v>
       </c>
@@ -2894,10 +2894,10 @@
       <c r="B27" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="104"/>
       <c r="E27" s="17">
         <v>50</v>
       </c>
@@ -2908,13 +2908,13 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="103"/>
       <c r="E28" s="19">
         <v>40</v>
       </c>
@@ -2925,11 +2925,11 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="62"/>
-      <c r="C29" s="50" t="s">
+      <c r="B29" s="110"/>
+      <c r="C29" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="50"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="13">
         <v>53</v>
       </c>
@@ -2940,11 +2940,11 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="62"/>
-      <c r="C30" s="50" t="s">
+      <c r="B30" s="110"/>
+      <c r="C30" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="103"/>
       <c r="E30" s="13">
         <v>67</v>
       </c>
@@ -2955,11 +2955,11 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="62"/>
-      <c r="C31" s="50" t="s">
+      <c r="B31" s="110"/>
+      <c r="C31" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="50"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="13">
         <v>133</v>
       </c>
@@ -2970,13 +2970,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="50"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="13">
         <v>40</v>
       </c>
@@ -2987,11 +2987,11 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="50" t="s">
+      <c r="B33" s="105"/>
+      <c r="C33" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="50"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="13">
         <v>52</v>
       </c>
@@ -3005,10 +3005,10 @@
       <c r="B34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="51"/>
+      <c r="D34" s="104"/>
       <c r="E34" s="21">
         <v>40</v>
       </c>
@@ -3022,10 +3022,10 @@
       <c r="B35" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="51"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="13">
         <v>32</v>
       </c>
@@ -3039,10 +3039,10 @@
       <c r="B36" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="51"/>
+      <c r="D36" s="104"/>
       <c r="E36" s="13">
         <v>53</v>
       </c>
@@ -3056,10 +3056,10 @@
       <c r="B37" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="51"/>
+      <c r="D37" s="104"/>
       <c r="E37" s="21">
         <v>40</v>
       </c>
@@ -3073,10 +3073,10 @@
       <c r="B38" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="51"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="25">
         <v>40</v>
       </c>
@@ -3090,10 +3090,10 @@
       <c r="B39" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="51"/>
+      <c r="D39" s="104"/>
       <c r="E39" s="17">
         <v>163</v>
       </c>
@@ -3107,10 +3107,10 @@
       <c r="B40" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="51"/>
+      <c r="D40" s="104"/>
       <c r="E40" s="17">
         <v>189</v>
       </c>
@@ -3124,10 +3124,10 @@
       <c r="B41" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="51"/>
+      <c r="D41" s="104"/>
       <c r="E41" s="17">
         <v>261</v>
       </c>
@@ -3141,10 +3141,10 @@
       <c r="B42" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="51"/>
+      <c r="D42" s="104"/>
       <c r="E42" s="17">
         <v>169</v>
       </c>
@@ -3158,10 +3158,10 @@
       <c r="B43" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="51"/>
+      <c r="D43" s="104"/>
       <c r="E43" s="13">
         <v>32</v>
       </c>
@@ -3175,10 +3175,10 @@
       <c r="B44" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="51"/>
+      <c r="D44" s="104"/>
       <c r="E44" s="13">
         <v>66</v>
       </c>
@@ -3192,10 +3192,10 @@
       <c r="B45" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="51"/>
+      <c r="D45" s="104"/>
       <c r="E45" s="17">
         <v>239</v>
       </c>
@@ -3209,10 +3209,10 @@
       <c r="B46" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="51"/>
+      <c r="D46" s="104"/>
       <c r="E46" s="17">
         <v>111</v>
       </c>
@@ -3223,13 +3223,13 @@
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="56"/>
+      <c r="D47" s="113"/>
       <c r="E47" s="17">
         <v>205</v>
       </c>
@@ -3240,11 +3240,11 @@
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="54"/>
-      <c r="C48" s="56" t="s">
+      <c r="B48" s="111"/>
+      <c r="C48" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="56"/>
+      <c r="D48" s="113"/>
       <c r="E48" s="17">
         <v>409</v>
       </c>
@@ -3301,12 +3301,51 @@
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="55">
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C40:D40"/>
@@ -3323,45 +3362,6 @@
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3377,7 +3377,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3400,1051 +3400,1051 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="92"/>
-      <c r="L2" s="91" t="s">
+      <c r="K2" s="76"/>
+      <c r="L2" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="91" t="s">
+      <c r="M2" s="76"/>
+      <c r="N2" s="75" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96" t="s">
+      <c r="D3" s="79"/>
+      <c r="E3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98">
+      <c r="G3" s="81"/>
+      <c r="H3" s="82">
         <f>D3*0.65</f>
         <v>0</v>
       </c>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="J3" s="100">
+      <c r="J3" s="84">
         <f>VLOOKUP(I3:I14,Плотность[],2,0)</f>
         <v>2.68</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="102">
+      <c r="K3" s="85"/>
+      <c r="L3" s="86">
         <f>D3*D3*G3*J3*0.002</f>
         <v>0</v>
       </c>
-      <c r="M3" s="103"/>
-      <c r="N3" s="102">
+      <c r="M3" s="87"/>
+      <c r="N3" s="86">
         <f>D3*D3*H3*J3*0.002</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="103">
+      <c r="G4" s="81"/>
+      <c r="H4" s="87">
         <f>D4*0.65</f>
         <v>0</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="100">
+      <c r="J4" s="84">
         <f>VLOOKUP(I4:I14,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="103">
+      <c r="K4" s="85"/>
+      <c r="L4" s="87">
         <f>D4*D4*G4*J4*0.0027</f>
         <v>0</v>
       </c>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103">
+      <c r="M4" s="87"/>
+      <c r="N4" s="87">
         <f>D4*D4*H4*J4*0.0027</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="103">
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="87">
         <f>F5*0.65</f>
         <v>0</v>
       </c>
-      <c r="I5" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="J5" s="100">
+      <c r="I5" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="84">
         <f>VLOOKUP(I5:I15,Плотность[],2,0)</f>
-        <v>2.7</v>
-      </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="102">
+        <v>2.66</v>
+      </c>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86">
         <f>E5*F5*G5*J5*0.0021</f>
         <v>0</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="102">
+      <c r="M5" s="87"/>
+      <c r="N5" s="86">
         <f>E5*F5*H5*J5*0.0021</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="103">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="87">
         <f t="shared" ref="H6:H14" si="0">F6*0.65</f>
         <v>0</v>
       </c>
-      <c r="I6" s="99" t="s">
+      <c r="I6" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="100">
+      <c r="J6" s="84">
         <f>VLOOKUP(I6:I16,Плотность[],2,0)</f>
         <v>2.68</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="103">
+      <c r="K6" s="85"/>
+      <c r="L6" s="87">
         <f>E6*F6*G6*J6*0.0027</f>
         <v>0</v>
       </c>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103">
+      <c r="M6" s="87"/>
+      <c r="N6" s="87">
         <f>E6*F6*H6*J6*0.0027</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="103">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I7" s="99" t="s">
+      <c r="I7" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J7" s="100">
+      <c r="J7" s="84">
         <f>VLOOKUP(I7:I17,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K7" s="101"/>
-      <c r="L7" s="102">
+      <c r="K7" s="85"/>
+      <c r="L7" s="86">
         <f>E7*F7*G7*J7*0.002</f>
         <v>0</v>
       </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="102">
+      <c r="M7" s="87"/>
+      <c r="N7" s="86">
         <f>E7*F7*H7*J7*0.002</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="103">
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="99" t="s">
+      <c r="I8" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="100">
+      <c r="J8" s="84">
         <f>VLOOKUP(I8:I18,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="103">
+      <c r="K8" s="85"/>
+      <c r="L8" s="87">
         <f>E8*F8*G8*J8*0.00245</f>
         <v>0</v>
       </c>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103">
+      <c r="M8" s="87"/>
+      <c r="N8" s="87">
         <f>E8*F8*H8*J8*0.00245</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="96" t="s">
+      <c r="D9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="103">
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="99" t="s">
+      <c r="I9" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="100">
+      <c r="J9" s="84">
         <f>VLOOKUP(I9:I19,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="102">
+      <c r="K9" s="85"/>
+      <c r="L9" s="86">
         <f>E9*F9*G9*J9*0.00235</f>
         <v>0</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="102">
+      <c r="M9" s="87"/>
+      <c r="N9" s="86">
         <f>E9*F9*H9*J9*0.00235</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="103">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I10" s="99" t="s">
+      <c r="I10" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="100">
+      <c r="J10" s="84">
         <f>VLOOKUP(I10:I22,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="103">
+      <c r="K10" s="85"/>
+      <c r="L10" s="87">
         <f>E10*F10*G10*J10*0.0029</f>
         <v>0</v>
       </c>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103">
+      <c r="M10" s="87"/>
+      <c r="N10" s="87">
         <f>E10*F10*H10*J10*0.0029</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D11" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="103">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="99" t="s">
+      <c r="I11" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="100">
+      <c r="J11" s="84">
         <f>VLOOKUP(I11:I23,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="102">
+      <c r="K11" s="84"/>
+      <c r="L11" s="86">
         <f>E11*F11*G11*J11*0.0019</f>
         <v>0</v>
       </c>
-      <c r="M11" s="103"/>
-      <c r="N11" s="102">
+      <c r="M11" s="87"/>
+      <c r="N11" s="86">
         <f>E11*F11*H11*J11*0.0019</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="103">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I12" s="99" t="s">
+      <c r="I12" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J12" s="100">
+      <c r="J12" s="84">
         <f>VLOOKUP(I12:I24,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="103">
+      <c r="K12" s="85"/>
+      <c r="L12" s="87">
         <f>E12*F12*G12*J12*0.0024</f>
         <v>0</v>
       </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103">
+      <c r="M12" s="87"/>
+      <c r="N12" s="87">
         <f>E12*F12*H12*J12*0.0024</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="103">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I13" s="99" t="s">
+      <c r="I13" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="100">
+      <c r="J13" s="84">
         <f>VLOOKUP(I13:I25,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="102">
+      <c r="K13" s="85"/>
+      <c r="L13" s="86">
         <f>E13*F13*G13*J13*0.00195</f>
         <v>0</v>
       </c>
-      <c r="M13" s="103"/>
-      <c r="N13" s="102">
+      <c r="M13" s="87"/>
+      <c r="N13" s="86">
         <f>E13*F13*H13*J13*0.00195</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="103">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I14" s="99" t="s">
+      <c r="I14" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J14" s="100">
+      <c r="J14" s="84">
         <f>VLOOKUP(I14:I26,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K14" s="101"/>
-      <c r="L14" s="103">
+      <c r="K14" s="85"/>
+      <c r="L14" s="87">
         <f t="shared" ref="L14:L19" si="1">E14*F14*G14*J14*0.0025</f>
         <v>0</v>
       </c>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103">
+      <c r="M14" s="87"/>
+      <c r="N14" s="87">
         <f t="shared" ref="N14:N19" si="2">E14*F14*H14*J14*0.0025</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="103">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="87">
         <f>F15*0.7</f>
         <v>0</v>
       </c>
-      <c r="I15" s="99" t="s">
+      <c r="I15" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="100">
+      <c r="J15" s="84">
         <f>VLOOKUP(I15:I27,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K15" s="105"/>
-      <c r="L15" s="106">
+      <c r="K15" s="89"/>
+      <c r="L15" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="105"/>
-      <c r="N15" s="106">
+      <c r="M15" s="89"/>
+      <c r="N15" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="96" t="s">
+      <c r="D16" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="103">
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="87">
         <f>F16*0.7</f>
         <v>0</v>
       </c>
-      <c r="I16" s="99" t="s">
+      <c r="I16" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="100">
+      <c r="J16" s="84">
         <f>VLOOKUP(I16:I28,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K16" s="105"/>
-      <c r="L16" s="103">
+      <c r="K16" s="89"/>
+      <c r="L16" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="105"/>
-      <c r="N16" s="103">
+      <c r="M16" s="89"/>
+      <c r="N16" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="96" t="s">
+      <c r="D17" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="103">
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="87">
         <f>F17*0.7</f>
         <v>0</v>
       </c>
-      <c r="I17" s="99" t="s">
+      <c r="I17" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="100">
+      <c r="J17" s="84">
         <f>VLOOKUP(I17:I29,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106">
+      <c r="K17" s="89"/>
+      <c r="L17" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M17" s="105"/>
-      <c r="N17" s="106">
+      <c r="M17" s="89"/>
+      <c r="N17" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="96" t="s">
+      <c r="D18" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="103">
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="87">
         <f>F18*0.7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="99" t="s">
+      <c r="I18" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="100">
+      <c r="J18" s="84">
         <f>VLOOKUP(I18:I30,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K18" s="105"/>
-      <c r="L18" s="103">
+      <c r="K18" s="89"/>
+      <c r="L18" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="105"/>
-      <c r="N18" s="103">
+      <c r="M18" s="89"/>
+      <c r="N18" s="87">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="103">
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="87">
         <f>F19*0.65</f>
         <v>0</v>
       </c>
-      <c r="I19" s="99" t="s">
+      <c r="I19" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="100">
+      <c r="J19" s="84">
         <f>VLOOKUP(I19:I31,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K19" s="105"/>
-      <c r="L19" s="106">
+      <c r="K19" s="89"/>
+      <c r="L19" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="105"/>
-      <c r="N19" s="106">
+      <c r="M19" s="89"/>
+      <c r="N19" s="90">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="103">
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="87">
         <f>F20*0.65</f>
         <v>0</v>
       </c>
-      <c r="I20" s="99" t="s">
+      <c r="I20" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="100">
+      <c r="J20" s="84">
         <f>VLOOKUP(I20:I32,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K20" s="105"/>
-      <c r="L20" s="103">
+      <c r="K20" s="89"/>
+      <c r="L20" s="87">
         <f>F20*F20*G20*J20*0.0018</f>
         <v>0</v>
       </c>
-      <c r="M20" s="105"/>
-      <c r="N20" s="103">
+      <c r="M20" s="89"/>
+      <c r="N20" s="87">
         <f>F20*F20*H20*J20*0.0018</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="108"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="111"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="95"/>
     </row>
     <row r="22" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="103">
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="87">
         <f>F22*0.65</f>
         <v>0</v>
       </c>
-      <c r="I22" s="99" t="s">
+      <c r="I22" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="100">
+      <c r="J22" s="84">
         <f>VLOOKUP(I22:I34,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K22" s="105"/>
-      <c r="L22" s="106">
+      <c r="K22" s="89"/>
+      <c r="L22" s="90">
         <f>F22*F22*G22*J22*0.0015</f>
         <v>0</v>
       </c>
-      <c r="M22" s="105"/>
-      <c r="N22" s="106">
+      <c r="M22" s="89"/>
+      <c r="N22" s="90">
         <f>F22*F22*H22*J22*0.0015</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="96" t="s">
+      <c r="E23" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="103">
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="87">
         <f>F23*0.65</f>
         <v>0</v>
       </c>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="100">
+      <c r="J23" s="84">
         <f>VLOOKUP(I23:I35,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K23" s="105"/>
-      <c r="L23" s="103">
+      <c r="K23" s="89"/>
+      <c r="L23" s="87">
         <f>F23*F23*G23*J23*0.0021</f>
         <v>0</v>
       </c>
-      <c r="M23" s="105"/>
-      <c r="N23" s="103">
+      <c r="M23" s="89"/>
+      <c r="N23" s="87">
         <f>F23*F23*H23*J23*0.0021</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="96" t="s">
+      <c r="E24" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="103">
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="87">
         <f>F24*0.65</f>
         <v>0</v>
       </c>
-      <c r="I24" s="99" t="s">
+      <c r="I24" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J24" s="100">
+      <c r="J24" s="84">
         <f>VLOOKUP(I24:I36,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K24" s="105"/>
-      <c r="L24" s="106">
+      <c r="K24" s="89"/>
+      <c r="L24" s="90">
         <f>F24*F24*G24*J24*0.00235</f>
         <v>0</v>
       </c>
-      <c r="M24" s="105"/>
-      <c r="N24" s="106">
+      <c r="M24" s="89"/>
+      <c r="N24" s="90">
         <f>F24*F24*H24*J24*0.00235</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="103">
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="87">
         <f>F25*0.7</f>
         <v>0</v>
       </c>
-      <c r="I25" s="99" t="s">
+      <c r="I25" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J25" s="100">
+      <c r="J25" s="84">
         <f>VLOOKUP(I25:I37,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K25" s="105"/>
-      <c r="L25" s="103">
+      <c r="K25" s="89"/>
+      <c r="L25" s="87">
         <f>E25*F25*G25*J25*0.0029</f>
         <v>0</v>
       </c>
-      <c r="M25" s="105"/>
-      <c r="N25" s="103">
+      <c r="M25" s="89"/>
+      <c r="N25" s="87">
         <f>E25*F25*H25*J25*0.0029</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="103">
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="87">
         <f>F26*0.6</f>
         <v>0</v>
       </c>
-      <c r="I26" s="99" t="s">
+      <c r="I26" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="100">
+      <c r="J26" s="84">
         <f>VLOOKUP(I26:I38,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="106">
+      <c r="K26" s="89"/>
+      <c r="L26" s="90">
         <f>E26*F26*G26*J26*0.0026</f>
         <v>0</v>
       </c>
-      <c r="M26" s="105"/>
-      <c r="N26" s="106">
+      <c r="M26" s="89"/>
+      <c r="N26" s="90">
         <f>E26*F26*H26*J26*0.0026</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="91" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="103">
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="87">
         <f>F27*0.7</f>
         <v>0</v>
       </c>
-      <c r="I27" s="99" t="s">
+      <c r="I27" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="100">
+      <c r="J27" s="84">
         <f>VLOOKUP(I27:I39,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K27" s="105"/>
-      <c r="L27" s="103">
+      <c r="K27" s="89"/>
+      <c r="L27" s="87">
         <f>E27*F27*G27*J27*0.0027</f>
         <v>0</v>
       </c>
-      <c r="M27" s="105"/>
-      <c r="N27" s="103">
+      <c r="M27" s="89"/>
+      <c r="N27" s="87">
         <f>E27*F27*H27*J27*0.0027</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="103">
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="87">
         <f>F28*0.6</f>
         <v>0</v>
       </c>
-      <c r="I28" s="99" t="s">
+      <c r="I28" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="100">
+      <c r="J28" s="84">
         <f>VLOOKUP(I28:I40,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K28" s="105"/>
-      <c r="L28" s="106">
+      <c r="K28" s="89"/>
+      <c r="L28" s="90">
         <f>E28*F28*G28*J28*0.003</f>
         <v>0</v>
       </c>
-      <c r="M28" s="105"/>
-      <c r="N28" s="106">
+      <c r="M28" s="89"/>
+      <c r="N28" s="90">
         <f>E28*F28*H28*J28*0.003</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C29" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="E29" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="103">
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="87">
         <f>F29*0.6</f>
         <v>0</v>
       </c>
-      <c r="I29" s="99" t="s">
+      <c r="I29" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="100">
+      <c r="J29" s="84">
         <f>VLOOKUP(I29:I41,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K29" s="105"/>
-      <c r="L29" s="103">
+      <c r="K29" s="89"/>
+      <c r="L29" s="87">
         <f>F29*F29*G29*J29*0.0018</f>
         <v>0</v>
       </c>
-      <c r="M29" s="105"/>
-      <c r="N29" s="103">
+      <c r="M29" s="89"/>
+      <c r="N29" s="87">
         <f>F29*F29*H29*J29*0.0018</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="88" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="96" t="s">
+      <c r="E30" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="103">
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="87">
         <f t="shared" ref="H30:H31" si="3">F30*0.6</f>
         <v>0</v>
       </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="100">
+      <c r="J30" s="84">
         <f>VLOOKUP(I30:I42,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K30" s="105"/>
-      <c r="L30" s="106">
+      <c r="K30" s="89"/>
+      <c r="L30" s="90">
         <f>F30*F30*G30*J30*0.0023</f>
         <v>0</v>
       </c>
-      <c r="M30" s="105"/>
-      <c r="N30" s="106">
+      <c r="M30" s="89"/>
+      <c r="N30" s="90">
         <f>F30*F30*H30*J30*0.0023</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="94" t="s">
+      <c r="C31" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D31" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="96" t="s">
+      <c r="E31" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="103">
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="87">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I31" s="99" t="s">
+      <c r="I31" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="100">
+      <c r="J31" s="84">
         <f>VLOOKUP(I31:I43,Плотность[],2,0)</f>
         <v>2.66</v>
       </c>
-      <c r="K31" s="105"/>
-      <c r="L31" s="103">
+      <c r="K31" s="89"/>
+      <c r="L31" s="87">
         <f>F31*F31*G31*J31*0.0022</f>
         <v>0</v>
       </c>
-      <c r="M31" s="105"/>
-      <c r="N31" s="103">
+      <c r="M31" s="89"/>
+      <c r="N31" s="87">
         <f>F31*F31*H31*J31*0.0022</f>
         <v>0</v>
       </c>
@@ -4485,7 +4485,7 @@
   </sheetPr>
   <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4497,23 +4497,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="73" t="s">
         <v>144</v>
       </c>
       <c r="D4" s="43"/>
@@ -4534,9 +4534,9 @@
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
-      <c r="G5" s="69"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="45"/>
-      <c r="I5" s="70"/>
+      <c r="I5" s="57"/>
       <c r="J5" s="45"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4549,9 +4549,9 @@
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
-      <c r="G6" s="69"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="44"/>
-      <c r="I6" s="70"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="45"/>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4564,9 +4564,9 @@
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
-      <c r="G7" s="69"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="44"/>
-      <c r="I7" s="70"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="45"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4579,9 +4579,9 @@
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
       <c r="F8" s="45"/>
-      <c r="G8" s="69"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="44"/>
-      <c r="I8" s="70"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="45"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4594,9 +4594,9 @@
       <c r="D9" s="45"/>
       <c r="E9" s="44"/>
       <c r="F9" s="45"/>
-      <c r="G9" s="69"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="44"/>
-      <c r="I9" s="70"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="45"/>
     </row>
     <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4607,11 +4607,11 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D10" s="44"/>
-      <c r="E10" s="71"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="44"/>
-      <c r="G10" s="69"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="70"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="45"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4624,9 +4624,9 @@
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="45"/>
-      <c r="G11" s="69"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="44"/>
-      <c r="I11" s="70"/>
+      <c r="I11" s="57"/>
       <c r="J11" s="45"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4639,9 +4639,9 @@
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
-      <c r="G12" s="69"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="70"/>
+      <c r="I12" s="57"/>
       <c r="J12" s="45"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4654,9 +4654,9 @@
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
-      <c r="G13" s="69"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="70"/>
+      <c r="I13" s="57"/>
       <c r="J13" s="45"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4669,9 +4669,9 @@
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
-      <c r="G14" s="69"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="70"/>
+      <c r="I14" s="57"/>
       <c r="J14" s="45"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4684,9 +4684,9 @@
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="44"/>
-      <c r="G15" s="69"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="70"/>
+      <c r="I15" s="57"/>
       <c r="J15" s="45"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4699,9 +4699,9 @@
       <c r="D16" s="44"/>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
-      <c r="G16" s="69"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="70"/>
+      <c r="I16" s="57"/>
       <c r="J16" s="45"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4714,9 +4714,9 @@
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
-      <c r="G17" s="69"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="70"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="45"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4729,9 +4729,9 @@
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
-      <c r="G18" s="69"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="70"/>
+      <c r="I18" s="57"/>
       <c r="J18" s="45"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4744,9 +4744,9 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
       <c r="F19" s="44"/>
-      <c r="G19" s="69"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="57"/>
       <c r="J19" s="45"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4757,12 +4757,12 @@
         <v>0.24</v>
       </c>
       <c r="D20" s="39"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="47">
@@ -5068,394 +5068,394 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="116"/>
     </row>
     <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="98" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="55">
         <v>2.62</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="55">
         <v>2.71</v>
       </c>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="55">
         <v>4.05</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="55">
         <v>2.56</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="55">
         <v>3.18</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="55">
         <v>2.72</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="55">
         <v>2.6</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="55">
         <v>3.52</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="54">
         <v>3.53</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="55">
         <v>3.29</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="55">
         <v>2.71</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="55">
         <v>2.66</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="68">
+      <c r="C17" s="55">
         <v>3.62</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="55">
         <v>2.68</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="54">
         <v>2.61</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="55">
         <v>2.7</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="68">
+      <c r="C21" s="55">
         <v>3.95</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="68">
+      <c r="C22" s="55">
         <v>2.82</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="68">
+      <c r="C23" s="55">
         <v>2.6</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="68">
+      <c r="C24" s="55">
         <v>2.12</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="68">
+      <c r="C25" s="55">
         <v>2.87</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="55">
         <v>2.75</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="55">
         <v>3.78</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="55">
         <v>3.92</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="67">
+      <c r="C29" s="54">
         <v>2.71</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="68">
+      <c r="C30" s="55">
         <v>2.59</v>
       </c>
       <c r="F30" s="11"/>
     </row>
     <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="68">
+      <c r="C31" s="55">
         <v>2.88</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="68">
+      <c r="C32" s="55">
         <v>3.84</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="68">
+      <c r="C33" s="55">
         <v>3.55</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="68">
+      <c r="C34" s="55">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="68">
+      <c r="C35" s="55">
         <v>3.24</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="55">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="68">
+      <c r="C37" s="55">
         <v>3.52</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="55">
         <v>3.3</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="68">
+      <c r="C39" s="55">
         <v>2.68</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="67" t="s">
+      <c r="B40" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C40" s="68">
+      <c r="C40" s="55">
         <v>3.53</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="67" t="s">
+      <c r="B41" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="68">
+      <c r="C41" s="55">
         <v>3.06</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="68">
+      <c r="C42" s="55">
         <v>5.8</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="68">
+      <c r="C43" s="55">
         <v>3.18</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="68">
+      <c r="C44" s="55">
         <v>2.6</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="68">
+      <c r="C45" s="55">
         <v>3.34</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="67" t="s">
+      <c r="B46" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="68">
+      <c r="C46" s="55">
         <v>3.61</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="68">
+      <c r="C47" s="55">
         <v>3.28</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="68">
+      <c r="C48" s="55">
         <v>2.68</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="68">
+      <c r="C49" s="55">
         <v>3.61</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="68">
+      <c r="C50" s="55">
         <v>1.08</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="67" t="s">
+      <c r="B51" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="68">
+      <c r="C51" s="55">
         <v>2.75</v>
       </c>
     </row>
@@ -5482,9 +5482,9 @@
   </sheetPr>
   <dimension ref="B2:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,875 +5498,875 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
     </row>
     <row r="4" spans="2:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="101" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="118" t="s">
+      <c r="G4" s="102" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="65">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="66">
         <v>1</v>
       </c>
-      <c r="E5" s="83">
+      <c r="E5" s="67">
         <f>VLOOKUP(D5,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86">
+      <c r="F5" s="69"/>
+      <c r="G5" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
       <c r="K5" s="46"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="65">
         <v>0.89</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="66">
         <v>1</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="67">
         <f>VLOOKUP(D6,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86">
+      <c r="F6" s="70"/>
+      <c r="G6" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="65">
         <v>0.91</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="66">
         <v>1</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="67">
         <f>VLOOKUP(D7,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86">
+      <c r="F7" s="70"/>
+      <c r="G7" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="65">
         <v>1.04</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="66">
         <v>1</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="67">
         <f>VLOOKUP(D8,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86">
+      <c r="F8" s="70"/>
+      <c r="G8" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="65">
         <v>0.78</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="66">
         <v>1</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="67">
         <f>VLOOKUP(D9,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="65">
         <v>1.04</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="66">
         <v>1</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="67">
         <f>VLOOKUP(D10,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86">
+      <c r="F10" s="70"/>
+      <c r="G10" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="65">
         <v>0.85</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="66">
         <v>1</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="67">
         <f>VLOOKUP(D11,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86">
+      <c r="F11" s="70"/>
+      <c r="G11" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="65">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="66">
         <v>1</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="67">
         <f>VLOOKUP(D12,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86">
+      <c r="F12" s="70"/>
+      <c r="G12" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="65">
         <v>0.98</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="66">
         <v>1</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="67">
         <f>VLOOKUP(D13,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86">
+      <c r="F13" s="70"/>
+      <c r="G13" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="66">
         <v>1.3</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="66">
         <v>1</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="67">
         <f>VLOOKUP(D14,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86">
+      <c r="F14" s="70"/>
+      <c r="G14" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="C15" s="81">
+      <c r="C15" s="65">
         <v>1.96</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="66">
         <v>1</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="67">
         <f>VLOOKUP(D15,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86">
+      <c r="F15" s="70"/>
+      <c r="G15" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="65">
         <v>1.05</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="66">
         <v>1</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="67">
         <f>VLOOKUP(D16,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86">
+      <c r="F16" s="70"/>
+      <c r="G16" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="65" t="s">
+      <c r="B17" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="81">
+      <c r="C17" s="65">
         <v>0.93</v>
       </c>
-      <c r="D17" s="82">
+      <c r="D17" s="66">
         <v>1</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="67">
         <f>VLOOKUP(D17,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86">
+      <c r="F17" s="70"/>
+      <c r="G17" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="65">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D18" s="82">
+      <c r="D18" s="66">
         <v>1</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="67">
         <f>VLOOKUP(D18,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86">
+      <c r="F18" s="70"/>
+      <c r="G18" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="66">
         <v>0.9</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="66">
         <v>1</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="67">
         <f>VLOOKUP(D19,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86">
+      <c r="F19" s="70"/>
+      <c r="G19" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="81">
+      <c r="C20" s="65">
         <v>1.32</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="66">
         <v>1</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="67">
         <f>VLOOKUP(D20,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86">
+      <c r="F20" s="70"/>
+      <c r="G20" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="81">
+      <c r="C21" s="65">
         <v>0.97</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="66">
         <v>1</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="67">
         <f>VLOOKUP(D21,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86">
+      <c r="F21" s="70"/>
+      <c r="G21" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="65">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="66">
         <v>1</v>
       </c>
-      <c r="E22" s="83">
+      <c r="E22" s="67">
         <f>VLOOKUP(D22,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86">
+      <c r="F22" s="70"/>
+      <c r="G22" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="65">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="66">
         <v>1</v>
       </c>
-      <c r="E23" s="83">
+      <c r="E23" s="67">
         <f>VLOOKUP(D23,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86">
+      <c r="F23" s="70"/>
+      <c r="G23" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="81">
+      <c r="C24" s="65">
         <v>1.28</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="66">
         <v>1</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="67">
         <f>VLOOKUP(D24,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86">
+      <c r="F24" s="70"/>
+      <c r="G24" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="81">
+      <c r="C25" s="65">
         <v>1.18</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="66">
         <v>1</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="67">
         <f>VLOOKUP(D25,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86">
+      <c r="F25" s="70"/>
+      <c r="G25" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="65">
         <v>1.06</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="66">
         <v>1</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E26" s="67">
         <f>VLOOKUP(D26,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86">
+      <c r="F26" s="70"/>
+      <c r="G26" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="65">
         <v>0.71</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="66">
         <v>1</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="67">
         <f>VLOOKUP(D27,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86">
+      <c r="F27" s="70"/>
+      <c r="G27" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="66">
         <v>1</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="66">
         <v>1</v>
       </c>
-      <c r="E28" s="83">
+      <c r="E28" s="67">
         <f>VLOOKUP(D28,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86">
+      <c r="F28" s="70"/>
+      <c r="G28" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="81">
+      <c r="C29" s="65">
         <v>0.95</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="66">
         <v>1</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="67">
         <f>VLOOKUP(D29,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86">
+      <c r="F29" s="70"/>
+      <c r="G29" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="65">
         <v>1.46</v>
       </c>
-      <c r="D30" s="82">
+      <c r="D30" s="66">
         <v>1</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="67">
         <f>VLOOKUP(D30,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86">
+      <c r="F30" s="70"/>
+      <c r="G30" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="81">
+      <c r="C31" s="65">
         <v>1.01</v>
       </c>
-      <c r="D31" s="82">
+      <c r="D31" s="66">
         <v>1</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E31" s="67">
         <f>VLOOKUP(D31,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86">
+      <c r="F31" s="70"/>
+      <c r="G31" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="65" t="s">
+      <c r="B32" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="81">
+      <c r="C32" s="65">
         <v>0.87</v>
       </c>
-      <c r="D32" s="82">
+      <c r="D32" s="66">
         <v>1</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E32" s="67">
         <f>VLOOKUP(D32,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86">
+      <c r="F32" s="70"/>
+      <c r="G32" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="81">
+      <c r="C33" s="65">
         <v>0.84</v>
       </c>
-      <c r="D33" s="82">
+      <c r="D33" s="66">
         <v>1</v>
       </c>
-      <c r="E33" s="83">
+      <c r="E33" s="67">
         <f>VLOOKUP(D33,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86">
+      <c r="F33" s="70"/>
+      <c r="G33" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="65" t="s">
+      <c r="B34" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="81">
+      <c r="C34" s="65">
         <v>1.65</v>
       </c>
-      <c r="D34" s="82">
+      <c r="D34" s="66">
         <v>1</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="67">
         <f>VLOOKUP(D34,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86">
+      <c r="F34" s="70"/>
+      <c r="G34" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="66">
         <v>0.9</v>
       </c>
-      <c r="D35" s="82">
+      <c r="D35" s="66">
         <v>1</v>
       </c>
-      <c r="E35" s="83">
+      <c r="E35" s="67">
         <f>VLOOKUP(D35,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86">
+      <c r="F35" s="70"/>
+      <c r="G35" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="81">
+      <c r="C36" s="65">
         <v>1.06</v>
       </c>
-      <c r="D36" s="82">
+      <c r="D36" s="66">
         <v>1</v>
       </c>
-      <c r="E36" s="83">
+      <c r="E36" s="67">
         <f>VLOOKUP(D36,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86">
+      <c r="F36" s="70"/>
+      <c r="G36" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="81">
+      <c r="C37" s="65">
         <v>0.93</v>
       </c>
-      <c r="D37" s="82">
+      <c r="D37" s="66">
         <v>1</v>
       </c>
-      <c r="E37" s="83">
+      <c r="E37" s="67">
         <f>VLOOKUP(D37,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86">
+      <c r="F37" s="70"/>
+      <c r="G37" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C38" s="81">
+      <c r="C38" s="65">
         <v>1.33</v>
       </c>
-      <c r="D38" s="82">
+      <c r="D38" s="66">
         <v>1</v>
       </c>
-      <c r="E38" s="83">
+      <c r="E38" s="67">
         <f>VLOOKUP(D38,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86">
+      <c r="F38" s="70"/>
+      <c r="G38" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="81">
+      <c r="C39" s="65">
         <v>1.73</v>
       </c>
-      <c r="D39" s="82">
+      <c r="D39" s="66">
         <v>1</v>
       </c>
-      <c r="E39" s="83">
+      <c r="E39" s="67">
         <f>VLOOKUP(D39,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86">
+      <c r="F39" s="70"/>
+      <c r="G39" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="65" t="s">
+      <c r="B40" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="C40" s="81">
+      <c r="C40" s="65">
         <v>1.03</v>
       </c>
-      <c r="D40" s="82">
+      <c r="D40" s="66">
         <v>1</v>
       </c>
-      <c r="E40" s="83">
+      <c r="E40" s="67">
         <f>VLOOKUP(D40,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86">
+      <c r="F40" s="70"/>
+      <c r="G40" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="68">
         <v>1.03</v>
       </c>
-      <c r="D41" s="82">
+      <c r="D41" s="66">
         <v>1</v>
       </c>
-      <c r="E41" s="83">
+      <c r="E41" s="67">
         <f>VLOOKUP(D41,Расчет_массы_кругБрил[],2,0)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F41" s="87"/>
-      <c r="G41" s="86">
+      <c r="F41" s="71"/>
+      <c r="G41" s="70">
         <f>Таблица4[[#This Row],[Коэффициент, ср.]]*Таблица4[[#This Row],[Масса брил.]]*Таблица4[[#This Row],[Колличество]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D42" s="38"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D43" s="38"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D44" s="38"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D45" s="38"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D46" s="38"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D47" s="38"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D48" s="38"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
     </row>
     <row r="49" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D49" s="38"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
     </row>
     <row r="50" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D50" s="38"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
     </row>
     <row r="51" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D51" s="38"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
     </row>
     <row r="52" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D52" s="38"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
     </row>
     <row r="53" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D53" s="38"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
     </row>
     <row r="54" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D54" s="38"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
     </row>
     <row r="55" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D55" s="38"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
     </row>
     <row r="56" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D56" s="38"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
     </row>
     <row r="57" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D57" s="38"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
     </row>
     <row r="58" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D58" s="38"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
     </row>
     <row r="59" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D59" s="38"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
     </row>
     <row r="60" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D60" s="38"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
     </row>
     <row r="61" spans="4:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D61" s="38"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
